--- a/artfynd/A 66048-2020.xlsx
+++ b/artfynd/A 66048-2020.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY5"/>
+  <dimension ref="A1:AY6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>16174808</v>
+        <v>55476489</v>
       </c>
       <c r="B2" t="n">
-        <v>101680</v>
+        <v>96309</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,43 +696,48 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>222412</v>
+        <v>219797</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Tibast</t>
+          <t>Purpurknipprot</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Daphne mezereum</t>
+          <t>Epipactis atrorubens</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Hoffm.) Besser</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>plantor/tuvor</t>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>blomknopp</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Magsjötorp, NNO om, Srm</t>
+          <t>Magsjötorp, N om, Srm</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>610884.2015489321</v>
+        <v>610865.2120036986</v>
       </c>
       <c r="R2" t="n">
-        <v>6566516.107835209</v>
+        <v>6566445.901323199</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -759,7 +764,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2014-07-14</t>
+          <t>2013-06-29</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -769,7 +774,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2014-07-14</t>
+          <t>2013-06-29</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -788,7 +793,7 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>Barrskog, vildsvinsutfodringsplats</t>
+          <t>Tallskog, gles</t>
         </is>
       </c>
       <c r="AT2" t="inlineStr"/>
@@ -806,10 +811,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>16485435</v>
+        <v>16174808</v>
       </c>
       <c r="B3" t="n">
-        <v>86130</v>
+        <v>101680</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -822,43 +827,43 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>239209</v>
+        <v>222412</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Kantarellvaxskivling</t>
+          <t>Tibast</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Hygrocybe cantharellus</t>
+          <t>Daphne mezereum</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>fruktkroppar</t>
+          <t>plantor/tuvor</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Stampmossen, intill NR, Srm</t>
+          <t>Magsjötorp, NNO om, Srm</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>610907.2289197927</v>
+        <v>610884.2015489321</v>
       </c>
       <c r="R3" t="n">
-        <v>6566676.5667688</v>
+        <v>6566516.107835209</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -885,7 +890,7 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2012-07-14</t>
+          <t>2014-07-14</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -895,7 +900,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2012-07-14</t>
+          <t>2014-07-14</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
@@ -903,11 +908,6 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>2 ex. på vändplan, på skogsbilväg.</t>
-        </is>
-      </c>
       <c r="AD3" t="b">
         <v>0</v>
       </c>
@@ -919,28 +919,28 @@
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>Vändplan i barrskog.</t>
+          <t>Barrskog, vildsvinsutfodringsplats</t>
         </is>
       </c>
       <c r="AT3" t="inlineStr"/>
       <c r="AW3" t="inlineStr">
         <is>
-          <t>Gillis Aronsson</t>
+          <t>Håkan Gustafson</t>
         </is>
       </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>Gillis Aronsson</t>
+          <t>Håkan Gustafson</t>
         </is>
       </c>
       <c r="AY3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>87547521</v>
+        <v>16485435</v>
       </c>
       <c r="B4" t="n">
-        <v>101680</v>
+        <v>86130</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -953,37 +953,46 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>222412</v>
+        <v>239209</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Tibast</t>
+          <t>Kantarellvaxskivling</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Daphne mezereum</t>
+          <t>Hygrocybe cantharellus</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>L.</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr"/>
+          <t>(Schwein.) Murrill</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Stampmossen, 250 m S om, Srm</t>
+          <t>Stampmossen, intill NR, Srm</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>611084.1312010352</v>
+        <v>610907.2289197927</v>
       </c>
       <c r="R4" t="n">
-        <v>6566609.516769746</v>
+        <v>6566676.5667688</v>
       </c>
       <c r="S4" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -1007,7 +1016,7 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>2020-08-15</t>
+          <t>2012-07-14</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
@@ -1017,7 +1026,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2020-08-15</t>
+          <t>2012-07-14</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
@@ -1025,6 +1034,11 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>2 ex. på vändplan, på skogsbilväg.</t>
+        </is>
+      </c>
       <c r="AD4" t="b">
         <v>0</v>
       </c>
@@ -1036,28 +1050,28 @@
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>kalkrik blandskog</t>
+          <t>Vändplan i barrskog.</t>
         </is>
       </c>
       <c r="AT4" t="inlineStr"/>
       <c r="AW4" t="inlineStr">
         <is>
-          <t>Hans Rydberg</t>
+          <t>Gillis Aronsson</t>
         </is>
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>Hans Rydberg</t>
+          <t>Gillis Aronsson</t>
         </is>
       </c>
       <c r="AY4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111175224</v>
+        <v>87547521</v>
       </c>
       <c r="B5" t="n">
-        <v>103288</v>
+        <v>101680</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1070,51 +1084,37 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>221144</v>
+        <v>222412</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Tibast</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Daphne mezereum</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Sw.</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>26</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>överblommad</t>
-        </is>
-      </c>
+          <t>L.</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Magsjötorp, N om, Srm</t>
+          <t>Stampmossen, 250 m S om, Srm</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>610855.2427083728</v>
+        <v>611084.1312010352</v>
       </c>
       <c r="R5" t="n">
-        <v>6566435.879798092</v>
+        <v>6566609.516769746</v>
       </c>
       <c r="S5" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -1138,7 +1138,7 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>2023-07-19</t>
+          <t>2020-08-15</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1148,7 +1148,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2023-07-19</t>
+          <t>2020-08-15</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
@@ -1167,21 +1167,152 @@
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>Tallskog</t>
+          <t>kalkrik blandskog</t>
         </is>
       </c>
       <c r="AT5" t="inlineStr"/>
       <c r="AW5" t="inlineStr">
         <is>
+          <t>Hans Rydberg</t>
+        </is>
+      </c>
+      <c r="AX5" t="inlineStr">
+        <is>
+          <t>Hans Rydberg</t>
+        </is>
+      </c>
+      <c r="AY5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>111175224</v>
+      </c>
+      <c r="B6" t="n">
+        <v>103288</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>221144</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Grönpyrola</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Pyrola chlorantha</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Sw.</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>överblommad</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>Magsjötorp, N om, Srm</t>
+        </is>
+      </c>
+      <c r="Q6" t="n">
+        <v>610855.2427083728</v>
+      </c>
+      <c r="R6" t="n">
+        <v>6566435.879798092</v>
+      </c>
+      <c r="S6" t="n">
+        <v>10</v>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>Södermanland</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>Strängnäs</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>Södermanland</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>Länna</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>2023-07-19</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
+          <t>2023-07-19</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI6" t="inlineStr">
+        <is>
+          <t>Tallskog</t>
+        </is>
+      </c>
+      <c r="AT6" t="inlineStr"/>
+      <c r="AW6" t="inlineStr">
+        <is>
           <t>Håkan Gustafson</t>
         </is>
       </c>
-      <c r="AX5" t="inlineStr">
+      <c r="AX6" t="inlineStr">
         <is>
           <t>Håkan Gustafson</t>
         </is>
       </c>
-      <c r="AY5" t="inlineStr"/>
+      <c r="AY6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
